--- a/sentiment_score.xlsx
+++ b/sentiment_score.xlsx
@@ -1,37 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estherwee/Documents/SMU/ML QF/MLQF/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839388E-47B7-4F41-8A6E-0E993A2AC283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>sentiment_score</t>
+  </si>
+  <si>
+    <t>2016-Jan-28-BA.N-138020839119-Transcript.txt</t>
+  </si>
+  <si>
+    <t>2015-Apr-22-BA.N-140063175207-Transcript.txt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +70,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,49 +394,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sentiment_score</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2016-Jan-28-BA.N-138020839119-Transcript.txt</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2903811252268603</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.29038112522686033</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2015-Apr-22-BA.N-140063175207-Transcript.txt</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1873873873873874</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.18738738738738739</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_score.xlsx
+++ b/sentiment_score.xlsx
@@ -1,61 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estherwee/Documents/SMU/ML QF/MLQF/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839388E-47B7-4F41-8A6E-0E993A2AC283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>sentiment_score</t>
-  </si>
-  <si>
-    <t>2016-Jan-28-BA.N-138020839119-Transcript.txt</t>
-  </si>
-  <si>
-    <t>2015-Apr-22-BA.N-140063175207-Transcript.txt</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,41 +420,2769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.29038112522686033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.18738738738738739</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2016-Jan-28-BA.N-138020839119-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2903811252268603</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2015-Apr-22-BA.N-140063175207-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1873873873873874</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-Oct-26-BA.N-140697322944-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08655616942909761</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2010-Jul-28-BA.N-137028827968-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05288461538461538</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2014-Jan-29-BA.N-139067099110-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2576687116564417</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2016-Apr-27-BA.N-136945469455-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2735674676524954</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2013-Oct-23-BA.N-137926414670-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2571428571428571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2018-Oct-24-BA.N-141011416206-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3433098591549296</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2012-Jul-25-BA.N-137340637566-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1493001555209953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2017-Oct-25-BA.N-137402596339-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3001605136436597</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2016-Oct-26-BA.N-138181083067-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2519685039370079</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-Jul-28-BA.N-139176649402-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.206140350877193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-Jul-29-BA.N-139449958669-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1057347670250896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2017-Jan-25-BA.N-137214911074-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.32171581769437</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2013-Jul-24-BA.N-138218065365-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1890459363957597</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-Apr-29-BA.N-138817718487-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.06678082191780822</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2011-Oct-26-BA.N-137584057258-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1227106227106227</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-Apr-27-BA.N-137142942545-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1274834437086093</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-Apr-28-BA.N-137047951222-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1770334928229665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2015-Oct-21-BA.N-137198648580-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2343499197431782</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-Jan-25-BA.N-139342221308-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2088724584103512</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2019-Jan-30-BA.N-138990629574-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3264705882352941</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2015-Jul-22-BA.N-139497154542-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3110419906687403</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-Jul-27-BA.N-140508251664-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1371841155234657</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2015-Jan-28-BA.N-140556991901-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2305025996533795</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2021-Jan-27-BA.N-137892384355-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1073717948717949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2012-Apr-25-BA.N-138408601235-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2356687898089172</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2012-Jan-25-BA.N-138990808057-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1724683544303797</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2019-Jul-24-BA.N-137112151512-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1965811965811966</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2016-Jul-27-BA.N-137777451183-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2174688057040998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-Jan-29-BA.N-138325278306-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.08021390374331551</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2013-Apr-24-BA.N-137636512282-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2300319488817891</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2021-Oct-27-BA.N-140217104863-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2014-Jul-23-BA.N-137560081354-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1755725190839695</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2018-Apr-25-BA.N-137221948791-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3463917525773196</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2011-Jan-26-BA.N-139028704912-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.04929577464788732</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2010-Apr-21-BA.N-138489678748-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1700404858299595</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2011-Jul-27-BA.N-137361982957-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1259720062208398</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2018-Jul-25-BA.N-138291656009-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3166953528399312</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2017-Jul-26-BA.N-140854397630-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2720364741641337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2010-Oct-20-BA.N-138815743851-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.07552870090634441</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2019-Apr-24-BA.N-138690059167-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2341880341880342</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-Oct-28-BA.N-139453086878-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0828125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2014-Oct-22-BA.N-139217648647-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2754716981132075</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2012-Oct-24-BA.N-137664140696-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2288659793814433</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2011-Apr-27-BA.N-137479023982-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.05862646566164154</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2017-Apr-26-BA.N-138041207668-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2773972602739726</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2019-Oct-23-BA.N-139954535253-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2018-Jan-31-BA.N-138242260509-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3200663349917081</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-Jan-26-BA.N-137457234690-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1906412478336222</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-Apr-26-BA.N-138897804396-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1332007952286282</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2014-Apr-23-BA.N-139344196416-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.2567567567567567</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2010-Jan-27-BA.N-137527139932-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1180223285486443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-Jul-26-BA.N-137384703699-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2077922077922078</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2013-Jan-30-BA.N-139641299429-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2019-May-11-MAR.OQ-137594252695-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1638846737481032</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2015-Oct-29-MAR.OQ-140354695980-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1523809523809524</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2012-Apr-19-MAR.OQ-138448780630-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.2159329140461216</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2010-Apr-22-MAR.OQ-138646256218-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.2033898305084746</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2015-Apr-30-MAR.OQ-139910425330-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1842546063651591</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2021-Nov-03-MAR.OQ-138060924297-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1742919389978214</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-Aug-02-MAR.OQ-137036030719-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2231759656652361</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2015-Jul-30-MAR.OQ-138244475826-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.180379746835443</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2019-Nov-06-MAR.OQ-139556135947-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1399416909620991</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2018-Aug-07-MAR.OQ-139226017174-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1676470588235294</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2021-Aug-03-MAR.OQ-138333172527-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.2366255144032922</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2011-Jul-14-MAR.OQ-138976507476-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1051660516605166</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2011-Feb-15-MAR.OQ-138182891648-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.2003610108303249</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2021-May-10-MAR.OQ-140657204219-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1534391534391534</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2017-Aug-08-MAR.OQ-140938793750-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1754716981132075</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-Feb-15-MAR.OQ-139679194039-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1688311688311688</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2014-Oct-29-MAR.OQ-140768010792-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1435114503816794</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-Nov-06-MAR.OQ-139347692008-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1269565217391304</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2017-Feb-16-MAR.OQ-140543161798-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1218424962852897</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2013-Oct-31-MAR.OQ-139246261497-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1965408805031447</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2013-Aug-01-MAR.OQ-139060911018-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1010248901903368</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-Feb-14-MAR.OQ-140873522693-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.206140350877193</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2012-Jul-12-MAR.OQ-138673146946-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1296625222024867</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2016-Nov-08-MAR.OQ-137680232026-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1362359550561798</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-May-04-MAR.OQ-140634420763-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2072649572649573</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2012-Feb-16-MAR.OQ-139421835494-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.2388059701492537</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2012-Oct-04-MAR.OQ-138087348276-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1276595744680851</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020-Aug-10-MAR.OQ-140625676993-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.09651898734177215</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2010-Jul-15-MAR.OQ-137127229331-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.2219626168224299</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-May-02-MAR.OQ-138363200204-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.235981308411215</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2016-Jul-28-MAR.OQ-139588200394-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2010-Feb-11-MAR.OQ-138456085639-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1196078431372549</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2014-Feb-20-MAR.OQ-137004020196-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.225752508361204</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2011-Oct-06-MAR.OQ-138845867198-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1845794392523364</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2011-Apr-21-MAR.OQ-139241852136-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1260683760683761</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2016-Feb-18-MAR.OQ-137660454397-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1721739130434783</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2017-May-09-MAR.OQ-138616386882-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2242647058823529</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2019-Aug-06-MAR.OQ-137465672543-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1119751166407465</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2014-Jul-30-MAR.OQ-141102776337-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.2215288611544462</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2017-Nov-08-MAR.OQ-140801657571-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-May-11-MAR.OQ-137497297408-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.04915254237288136</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2013-Feb-20-MAR.OQ-140853632489-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.09904153354632587</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2018-Nov-06-MAR.OQ-137209976625-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1115942028985507</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2018-Feb-15-MAR.OQ-140139416798-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.2091310751104566</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-Feb-27-MAR.OQ-138362379984-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.111913357400722</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2013-May-02-MAR.OQ-139981686896-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1272727272727273</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022-Nov-03-MAR.OQ-140938416599-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.2570694087403599</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2015-Feb-19-MAR.OQ-138956443441-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.2031746031746032</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2021-Feb-18-MAR.OQ-139708751802-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1594454072790294</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2016-Apr-28-MAR.OQ-140695981303-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.1731123388581952</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-Aug-01-MAR.OQ-138169968313-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.2432432432432433</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2014-Apr-30-MAR.OQ-139263526264-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1926070038910506</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2010-Oct-07-MAR.OQ-138742282127-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.118705035971223</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2019-Mar-01-MAR.OQ-137478960054-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.134441087613293</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2018-May-09-MAR.OQ-138164761212-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.2302936630602782</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2016-Apr-26-LMT.N-138440729753-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.135523613963039</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2017-Apr-25-LMT.N-139422128793-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1547619047619048</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2022-Apr-19-LMT.N-141043498776-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1825396825396825</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2016-Jul-19-LMT.N-140142798307-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.2418604651162791</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-Jan-25-LMT.N-140250779000-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1905697445972495</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2022-Jul-19-LMT.N-140753758356-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.1129707112970711</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2022-Jan-26-LMT.N-137190143865-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1850220264317181</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2020-Oct-20-LMT.N-140401992295-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-Apr-18-LMT.N-140560072860-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1630648330058939</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2010-Jul-27-LMT.N-138786709430-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2014-Oct-21-LMT.N-140523928165-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2013-Apr-23-LMT.N-139728588126-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2022-Oct-18-LMT.N-140283765247-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1992263056092843</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2017-Oct-24-LMT.N-140574039005-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1624713958810069</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2013-Oct-22-LMT.N-137114397957-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1772908366533865</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2011-Oct-27-LMT.N-138674432539-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.1711026615969582</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2010-Oct-19-LMT.N-140188076373-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.09183673469387756</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2012-Jan-27-LMT.N-137516123210-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.1779448621553885</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2015-Jul-20-LMT.N-137980574084-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.2170418006430868</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2021-Oct-26-LMT.N-138369309125-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1449275362318841</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2014-Jul-22-LMT.N-140814685011-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1982182628062361</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2014-Jan-24-LMT.N-137032607142-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.2472160356347439</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2011-Jul-26-LMT.N-141119573129-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1402936378466558</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2012-Apr-27-LMT.N-139772163789-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.1897321428571428</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2011-Apr-26-LMT.N-140280589343-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.1476510067114094</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2020-Apr-21-LMT.N-141018683904-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.1948818897637795</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2017-Jul-18-LMT.N-140351474310-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.1791044776119403</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2018-Apr-24-LMT.N-140116053483-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.206140350877193</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2021-Apr-20-LMT.N-140914281078-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.2344398340248963</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2010-Apr-21-LMT.N-138381992781-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.2344213649851632</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2021-Jan-27-LMT.N-138666474183-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.246606334841629</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2020-Jul-21-LMT.N-139805467207-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.1949685534591195</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-Jul-18-LMT.N-140113418888-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.2343434343434344</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2021-Jul-26-LMT.N-139099303393-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1986899563318777</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2019-Jan-30-LMT.N-140256880811-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.2637362637362637</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2020-Jan-29-LMT.N-140872655198-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.2548179871520342</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2013-Jan-25-LMT.N-136920228912-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2012-Oct-25-LMT.N-138075555730-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.1791730474732006</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2012-Jul-24-LMT.N-138214736628-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.1196754563894523</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2018-Oct-23-LMT.N-138349754111-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.2282608695652174</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2019-Oct-22-LMT.N-137997956068-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.2557651991614256</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2013-Jul-23-LMT.N-139529297858-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.1884368308351178</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2016-Oct-25-LMT.N-138556032891-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.1717171717171717</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2019-Apr-23-LMT.N-140390051955-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.3006263048016701</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2015-Apr-21-LMT.N-137373202100-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.2211764705882353</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2018-Jan-29-LMT.N-139835096137-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2011-Jan-28-LMT.N-139665893303-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.2158671586715867</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2017-Jan-25-LMT.N-139927272047-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.2335766423357664</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2016-Jan-27-LMT.N-138346423871-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.2008928571428572</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2014-Apr-22-LMT.N-140443129791-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.2150537634408602</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2015-Oct-20-LMT.N-137287563681-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.1475054229934924</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2019-Jul-23-LMT.N-138568223081-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3068669527896996</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2018-Jul-24-LMT.N-137176405945-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.2212189616252822</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2010-Jan-29-LMT.N-141157223875-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.1232294617563739</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2014-Nov-07-NVDA.OQ-138444020611-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.3298538622129436</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2014-Aug-08-NVDA.OQ-139898306665-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.2464788732394366</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2019-Nov-15-NVDA.OQ-138044908915-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.1761133603238866</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2011-Aug-12-NVDA.OQ-137570651584-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.2289628180039139</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2015-Aug-07-NVDA.OQ-141032355338-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.2332928311057108</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2012-Aug-10-NVDA.OQ-139568942439-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.2984822934232715</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2016-Aug-12-NVDA.OQ-137630422721-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2012-May-11-NVDA.OQ-140394852961-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.1854974704890388</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2016-May-13-NVDA.OQ-138694120049-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.2224299065420561</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2013-Feb-14-NVDA.OQ-140772000934-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.2273603082851638</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2015-Feb-12-NVDA.OQ-137136073559-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.2932604735883425</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2020-Nov-19-NVDA.OQ-137342634445-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.2409381663113006</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2017-Nov-10-NVDA.OQ-138893509408-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.2565789473684211</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2021-May-27-NVDA.OQ-140536594409-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.3068669527896996</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2021-Nov-18-NVDA.OQ-139568780056-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.1918367346938775</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-Feb-23-NVDA.OQ-137608967498-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.2337662337662338</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2018-May-11-NVDA.OQ-140924003184-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.2359932088285229</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2018-Feb-09-NVDA.OQ-137041117154-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.2190669371196755</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2015-Nov-06-NVDA.OQ-138649478174-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.2639885222381635</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2020-May-22-NVDA.OQ-139958608589-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.2064056939501779</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2020-Feb-14-NVDA.OQ-137146670911-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.2417153996101364</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2014-May-09-NVDA.OQ-137476783536-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.2606741573033708</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2010-May-14-NVDA.OQ-138821705150-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2011-Nov-11-NVDA.OQ-138793544324-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.2784810126582278</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2018-Aug-17-NVDA.OQ-136946161445-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.2626050420168067</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2017-Aug-11-NVDA.OQ-141104386843-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2022-Feb-17-NVDA.OQ-140007769507-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.2771618625277162</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2022-Nov-17-NVDA.OQ-139288301318-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2010-Aug-13-NVDA.OQ-139296113642-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.06304347826086956</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2018-Nov-16-NVDA.OQ-141007714603-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.172</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-May-25-NVDA.OQ-136909784191-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.1885245901639344</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2019-Feb-15-NVDA.OQ-138662621679-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.1552028218694885</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2022-Aug-25-NVDA.OQ-138269873856-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.05821205821205822</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2016-Feb-18-NVDA.OQ-137684028887-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.2677053824362606</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2010-Feb-18-NVDA.OQ-137878150628-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.2122641509433962</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2021-Feb-25-NVDA.OQ-140975780833-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.2878787878787879</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2017-May-10-NVDA.OQ-138736028656-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.184257602862254</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2019-Aug-16-NVDA.OQ-140926561998-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.2331154684095861</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2013-May-10-NVDA.OQ-137858274515-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.1653543307086614</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2011-May-13-NVDA.OQ-141174039543-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.2212765957446808</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2019-May-17-NVDA.OQ-140275786112-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1565040650406504</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2021-Aug-19-NVDA.OQ-137355070866-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.2765957446808511</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2010-Nov-12-NVDA.OQ-138536159613-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2015-May-08-NVDA.OQ-137924659730-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.180327868852459</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2022-May-26-NVDA.OQ-140360204206-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2013-Aug-09-NVDA.OQ-138489914796-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.1702838063439065</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2011-Feb-17-NVDA.OQ-140161548903-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.1990407673860911</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2012-Nov-09-NVDA.OQ-138823460752-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.2494669509594883</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2013-Nov-08-NVDA.OQ-137748639258-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.2402464065708419</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2020-Aug-20-NVDA.OQ-140529591121-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.236734693877551</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-Aug-24-NVDA.OQ-139752558276-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.2595744680851064</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2014-Feb-13-NVDA.OQ-141098679075-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.221824686940966</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2016-Nov-11-NVDA.OQ-140060108387-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2017-Feb-10-NVDA.OQ-139749194302-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.2188841201716738</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2012-Feb-16-NVDA.OQ-140252246523-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1452513966480447</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2019-Jan-30-AAPL.OQ-140336997647-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.2196261682242991</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-Aug-04-AAPL.OQ-138336763416-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.3002159827213823</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2011-Jan-19-AAPL.OQ-141128533846-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.2876447876447876</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2022-Apr-29-AAPL.OQ-138491813375-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.1773835920177384</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2011-Jul-20-AAPL.OQ-138644042493-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.2576687116564417</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2021-Oct-29-AAPL.OQ-139435924054-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.2286902286902287</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2013-Jan-24-AAPL.OQ-140954515097-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.1692607003891051</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2013-Jul-24-AAPL.OQ-140638991062-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.1600877192982456</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2021-Apr-29-AAPL.OQ-139264952632-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.2665245202558635</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2018-Aug-01-AAPL.OQ-139026375135-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.3406862745098039</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2012-Apr-25-AAPL.OQ-139342625228-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.170018281535649</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2017-Feb-01-AAPL.OQ-140364707110-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.3259803921568628</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2018-Nov-02-AAPL.OQ-138049463377-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.3148614609571788</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2014-Oct-21-AAPL.OQ-138462795853-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.2306201550387597</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2019-Jul-31-AAPL.OQ-139263252221-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.3642691415313225</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2014-Jul-23-AAPL.OQ-139741872256-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.242152466367713</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2011-Oct-19-AAPL.OQ-139573716041-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.2388758782201405</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2016-Jan-27-AAPL.OQ-140906216022-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.2041666666666667</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2015-Jan-28-AAPL.OQ-140714749118-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.230188679245283</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2015-Jul-22-AAPL.OQ-136920688383-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.3034188034188034</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2012-Oct-26-AAPL.OQ-138840168697-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.194980694980695</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2016-Oct-26-AAPL.OQ-140489921828-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.2161100196463654</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2020-Jul-31-AAPL.OQ-139668219181-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.2637889688249401</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2015-Apr-28-AAPL.OQ-139623891101-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.2684824902723735</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2020-Jan-29-AAPL.OQ-137948852907-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.2482598607888631</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2020-May-01-AAPL.OQ-140195689057-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.2073170731707317</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2010-Jul-21-AAPL.OQ-140668365936-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1830663615560641</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2018-May-02-AAPL.OQ-141108307205-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.2944038929440389</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2014-Jan-28-AAPL.OQ-139213731866-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.2136563876651982</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2016-Jul-27-AAPL.OQ-138251255344-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.2139737991266376</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2017-Nov-03-AAPL.OQ-139802785095-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.3126338329764454</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2023-May-05-AAPL.OQ-139016265469-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.2182203389830508</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2023-Feb-03-AAPL.OQ-140682524715-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.183982683982684</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2022-Oct-28-AAPL.OQ-140449384074-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.2172949002217295</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2021-Jan-28-AAPL.OQ-137405328510-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.2853982300884956</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2020-Oct-30-AAPL.OQ-141103256170-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.2960526315789473</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2018-Feb-02-AAPL.OQ-139637034005-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.2700892857142857</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2022-Jan-28-AAPL.OQ-138984465849-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.2804597701149426</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2010-Jan-26-AAPL.OQ-137987808542-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.189922480620155</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2016-Apr-27-AAPL.OQ-140538278787-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.2121896162528217</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2014-Apr-24-AAPL.OQ-140076124253-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.2878411910669975</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2017-Aug-02-AAPL.OQ-137565113364-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.3188405797101449</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2013-Apr-24-AAPL.OQ-140482424196-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.2238532110091743</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2022-Jul-29-AAPL.OQ-139999304673-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1252747252747253</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2010-Apr-21-AAPL.OQ-136983110822-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.2267206477732794</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2021-Jul-28-AAPL.OQ-138310703827-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.3004385964912281</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2013-Oct-29-AAPL.OQ-136981108449-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.2717149220489978</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2010-Oct-19-AAPL.OQ-137159051561-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.1849148418491484</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2012-Jan-25-AAPL.OQ-141182436470-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.229126213592233</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2019-May-01-AAPL.OQ-139934481137-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.310077519379845</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2017-May-03-AAPL.OQ-137410537849-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.2665036674816626</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2015-Oct-28-AAPL.OQ-139180636945-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.286697247706422</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2012-Jul-25-AAPL.OQ-138648438585-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.1751412429378531</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2011-Apr-21-AAPL.OQ-140555924186-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.2046511627906977</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2019-Oct-31-AAPL.OQ-137802390954-Transcript.txt</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.3423423423423423</v>
       </c>
     </row>
   </sheetData>
